--- a/db/exemplo.xlsx
+++ b/db/exemplo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhonny.mineu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhonny.mineu\Documents\GitHub\Streamlit_DTT5\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B867CB97-213E-4CE9-9DCF-778DA9EC83FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB8EFA-80BE-4262-A58F-72B31487816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EA0D2DC-DFBB-4E85-B531-FD4C4A8C8587}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$O$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$O$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="26">
   <si>
     <t>Fase</t>
   </si>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7183FEE-6EE4-4F29-BA48-B97B31E36CE6}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:O22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -1872,23 +1872,26 @@
       <c r="D30">
         <v>1</v>
       </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G30">
-        <v>6.3688333333999996</v>
+        <v>5.7038333334000004</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>7.3</v>
       </c>
-      <c r="I30">
-        <v>8.6999999999999993</v>
-      </c>
       <c r="J30">
-        <v>6.27</v>
+        <v>7.52</v>
       </c>
       <c r="K30">
-        <v>5.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L30">
         <v>8.4466666670000006</v>
@@ -1897,61 +1900,14 @@
         <v>5</v>
       </c>
       <c r="N30">
-        <v>7.7083333329999997</v>
+        <v>7.2916666670000003</v>
       </c>
       <c r="O30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31">
-        <v>5.7038333334000004</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>7.3</v>
-      </c>
-      <c r="J31">
-        <v>7.52</v>
-      </c>
-      <c r="K31">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L31">
-        <v>8.4466666670000006</v>
-      </c>
-      <c r="M31">
-        <v>5</v>
-      </c>
-      <c r="N31">
-        <v>7.2916666670000003</v>
-      </c>
-      <c r="O31" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O31" xr:uid="{C7183FEE-6EE4-4F29-BA48-B97B31E36CE6}"/>
+  <autoFilter ref="A1:O30" xr:uid="{C7183FEE-6EE4-4F29-BA48-B97B31E36CE6}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>